--- a/Documentation/Performance.xlsx
+++ b/Documentation/Performance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniilignatev/Documents/GitHub/ResearchProject/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignatev\Documents\Projects\Fork\ResearchProject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCED411-85B9-2D42-852D-D5661DB7A60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9156F3A9-9A3A-4E6C-AB92-D920A1B5676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="49940" windowHeight="28300" tabRatio="514" activeTab="1" xr2:uid="{07024F4D-E5C7-4B8A-AB6A-143DE046C366}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="514" activeTab="1" xr2:uid="{07024F4D-E5C7-4B8A-AB6A-143DE046C366}"/>
   </bookViews>
   <sheets>
     <sheet name="FPGA" sheetId="5" r:id="rId1"/>
@@ -268,7 +268,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -586,7 +586,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -624,7 +624,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1388076240"/>
@@ -714,7 +714,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -746,7 +746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1391260000"/>
@@ -788,7 +788,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -827,7 +827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -864,7 +864,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -878,7 +878,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1138,7 +1138,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1388076240"/>
@@ -1240,7 +1240,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1391260000"/>
@@ -1282,7 +1282,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1314,7 +1314,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1330,7 +1330,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1344,7 +1344,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1650,7 +1650,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1688,7 +1688,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1388076240"/>
@@ -1774,7 +1774,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1806,7 +1806,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1391260000"/>
@@ -1848,7 +1848,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1887,7 +1887,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1924,7 +1924,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1938,7 +1938,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2214,7 +2214,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1388076240"/>
@@ -2308,7 +2308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1391260000"/>
@@ -2350,7 +2350,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2382,7 +2382,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2398,7 +2398,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2412,7 +2412,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2702,7 +2702,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2740,7 +2740,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1388076240"/>
@@ -2830,7 +2830,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2862,7 +2862,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1391260000"/>
@@ -2904,7 +2904,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -2943,7 +2943,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2980,7 +2980,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2994,7 +2994,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3051,7 +3051,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3109,7 +3109,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,7 +3124,7 @@
                   <c:v>852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2083</c:v>
+                  <c:v>2079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,7 +3233,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1388076240"/>
@@ -3335,7 +3335,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1391260000"/>
@@ -3377,7 +3377,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -3409,7 +3409,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3425,7 +3425,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5634,20 +5634,20 @@
       <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>15</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>791.76563737133813</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>30</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>3958.8281868566905</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>60</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>11876.484560570072</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>90</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>270.0513097488523</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>120</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>203.12817387771685</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>150</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>162.78691193228065</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>180</v>
       </c>
@@ -5791,10 +5791,10 @@
         <v>135.81420616596495</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
@@ -5802,12 +5802,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>0</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="5">
         <v>15</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>292.31218941829877</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="5">
         <v>30</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>398.69228929112512</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="5">
         <v>60</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>424.43620723805213</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="5">
         <v>90</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>178.03097739006586</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="5">
         <v>120</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>148.92032762472078</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="5">
         <v>150</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>127.99180852425444</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="5">
         <v>180</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>112.22085063404782</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
@@ -5959,21 +5959,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B122" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
     </row>
   </sheetData>
@@ -5988,22 +5988,22 @@
   <dimension ref="B2:L123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.1640625" style="1"/>
-    <col min="3" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>15</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>30</v>
       </c>
@@ -6076,16 +6076,16 @@
         <v>1.1739999999999999</v>
       </c>
       <c r="J6" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K6" s="5">
         <v>833</v>
       </c>
       <c r="L6" s="5">
-        <v>2083</v>
+        <v>2079</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>60</v>
       </c>
@@ -6107,7 +6107,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>90</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>120</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>150</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>180</v>
       </c>
@@ -6183,10 +6183,10 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D12" s="3"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
@@ -6194,10 +6194,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -6205,7 +6205,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -6213,7 +6213,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -6221,7 +6221,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -6229,39 +6229,39 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
     </row>
   </sheetData>
